--- a/data/trans_orig/Q25_A_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q25_A_R-Clase-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población en función del tiempo en años desde que dejó de fumar</t>
+          <t>Tiempo medio en años desde que dejó de fumar</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,56; 13,18</t>
+          <t>8,65; 13,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,17; 14,87</t>
+          <t>11,36; 15,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,89; 16,53</t>
+          <t>11,71; 16,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,2; 18,65</t>
+          <t>14,06; 18,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,23; 10,47</t>
+          <t>6,13; 10,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,85; 8,8</t>
+          <t>4,92; 8,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,64; 13,54</t>
+          <t>8,8; 13,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,17; 16,47</t>
+          <t>11,86; 16,52</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,39; 11,93</t>
+          <t>8,33; 11,92</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9,37; 12,43</t>
+          <t>9,4; 12,4</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>11,12; 14,71</t>
+          <t>11,15; 14,56</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>13,99; 17,26</t>
+          <t>14,1; 17,46</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,98; 12,0</t>
+          <t>7,92; 12,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,44; 15,2</t>
+          <t>9,31; 15,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,62; 13,89</t>
+          <t>9,64; 13,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,56; 18,34</t>
+          <t>13,31; 18,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,46; 8,91</t>
+          <t>4,67; 9,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,55; 10,96</t>
+          <t>6,53; 10,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,43; 10,15</t>
+          <t>6,43; 10,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,13; 14,77</t>
+          <t>9,94; 14,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,26; 10,46</t>
+          <t>7,26; 10,38</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,76; 13,11</t>
+          <t>8,93; 12,97</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8,69; 11,47</t>
+          <t>8,48; 11,56</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,77; 16,28</t>
+          <t>12,81; 16,22</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,76; 11,95</t>
+          <t>8,82; 11,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,28; 13,9</t>
+          <t>10,26; 13,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,83; 15,73</t>
+          <t>11,78; 15,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,89; 16,86</t>
+          <t>3,07; 16,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,55; 7,25</t>
+          <t>3,66; 7,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,78; 10,89</t>
+          <t>5,57; 11,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,48; 11,44</t>
+          <t>4,66; 11,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,9; 13,44</t>
+          <t>8,01; 13,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,07; 10,63</t>
+          <t>8,06; 10,63</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>10,02; 13,12</t>
+          <t>9,79; 13,04</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,27; 15,09</t>
+          <t>11,23; 14,95</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,93; 15,73</t>
+          <t>3,06; 15,68</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,3; 12,37</t>
+          <t>10,27; 12,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,31; 12,96</t>
+          <t>10,26; 12,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,97; 12,41</t>
+          <t>10,02; 12,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,49; 18,73</t>
+          <t>15,5; 18,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,68; 8,32</t>
+          <t>4,77; 8,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,49; 9,55</t>
+          <t>6,44; 9,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,98; 10,58</t>
+          <t>6,97; 10,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,34; 13,02</t>
+          <t>9,31; 12,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,32; 11,23</t>
+          <t>9,29; 11,16</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,53; 11,72</t>
+          <t>9,49; 11,56</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,4; 11,43</t>
+          <t>9,5; 11,46</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,04; 16,62</t>
+          <t>14,04; 16,86</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,14; 15,47</t>
+          <t>9,95; 15,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,46; 16,03</t>
+          <t>11,66; 15,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,73; 16,84</t>
+          <t>12,82; 16,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,21; 18,59</t>
+          <t>14,2; 18,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,61; 8,17</t>
+          <t>4,45; 8,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,29; 9,3</t>
+          <t>6,2; 9,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,53; 13,8</t>
+          <t>7,58; 13,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,23; 14,54</t>
+          <t>10,3; 14,82</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,28; 12,32</t>
+          <t>8,46; 12,2</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,98; 13,08</t>
+          <t>9,98; 13,07</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>11,3; 14,82</t>
+          <t>11,25; 14,68</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>13,08; 16,16</t>
+          <t>13,07; 16,18</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,89; 7,34</t>
+          <t>0,85; 7,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,29; 15,01</t>
+          <t>1,22; 16,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,97; 15,92</t>
+          <t>2,06; 16,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,63; 15,48</t>
+          <t>2,47; 15,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,28; 10,71</t>
+          <t>6,31; 10,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,8; 10,69</t>
+          <t>6,05; 10,78</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,94; 10,03</t>
+          <t>4,72; 9,64</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>13,52; 23,64</t>
+          <t>13,17; 23,81</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,83; 9,96</t>
+          <t>5,87; 9,84</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>5,84; 10,22</t>
+          <t>5,95; 10,13</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>4,95; 9,44</t>
+          <t>4,69; 9,45</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>12,27; 22,93</t>
+          <t>12,48; 22,02</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,14; 11,7</t>
+          <t>10,11; 11,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11,25; 12,95</t>
+          <t>11,28; 12,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,88; 13,51</t>
+          <t>11,84; 13,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,52; 16,69</t>
+          <t>6,74; 16,62</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,98; 7,72</t>
+          <t>5,94; 7,71</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,98; 8,53</t>
+          <t>6,9; 8,43</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,95; 9,98</t>
+          <t>7,85; 9,83</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,83; 14,01</t>
+          <t>11,79; 14,07</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9,1; 10,32</t>
+          <t>9,02; 10,25</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>10,06; 11,28</t>
+          <t>10,05; 11,36</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>10,69; 11,96</t>
+          <t>10,72; 12,02</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>7,45; 15,36</t>
+          <t>6,99; 15,36</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/Q25_A_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q25_A_R-Clase-trans_orig.xlsx
@@ -1346,7 +1346,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
